--- a/medicine/Mort/Cimetière_de_Malakoff/Cimetière_de_Malakoff.xlsx
+++ b/medicine/Mort/Cimetière_de_Malakoff/Cimetière_de_Malakoff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Malakoff</t>
+          <t>Cimetière_de_Malakoff</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Malakoff est le cimetière communal de la commune de Malakoff dans les Hauts-de-Seine[1]. Il est situé boulevard de Stalingrad, à proximité de la chapelle du Sacré-Cœur de Malakoff.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Malakoff est le cimetière communal de la commune de Malakoff dans les Hauts-de-Seine. Il est situé boulevard de Stalingrad, à proximité de la chapelle du Sacré-Cœur de Malakoff.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Malakoff</t>
+          <t>Cimetière_de_Malakoff</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Malakoff n'a plus de concessions libres, mis à part dans le columbarium[2]. Les nouvelles inhumations doivent avoir lieu au cimetière intercommunal de Clamart, appelé aussi « cimetière du Parc ».
-Il s'y trouve un monument aux morts[3],[4],[5].
-Il comporte deux carrés militaires: Le premier est relatif à la Seconde Guerre mondiale, et aux guerres d’Indochine et d’Algérie. Le second est dédié à la Première Guerre mondiale[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Malakoff n'a plus de concessions libres, mis à part dans le columbarium. Les nouvelles inhumations doivent avoir lieu au cimetière intercommunal de Clamart, appelé aussi « cimetière du Parc ».
+Il s'y trouve un monument aux morts.
+Il comporte deux carrés militaires: Le premier est relatif à la Seconde Guerre mondiale, et aux guerres d’Indochine et d’Algérie. Le second est dédié à la Première Guerre mondiale.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Malakoff</t>
+          <t>Cimetière_de_Malakoff</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La création du cimetière de Malakoff remonte à 1883, année de la sécession de la commune d’avec Vanves[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La création du cimetière de Malakoff remonte à 1883, année de la sécession de la commune d’avec Vanves.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Malakoff</t>
+          <t>Cimetière_de_Malakoff</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le coureur cycliste Eugène Christophe (1885-1970)[8] ;
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le coureur cycliste Eugène Christophe (1885-1970) ;
 Gaëtan Gatian de Clérambault (1872-1934), psychiatre ;
 Vetese Guerino (1895-1952), accordéoniste ;
 Hervé Le Roux (1956-2016), réalisateur et critique de cinéma ;
